--- a/Clase/Modelado de dominio/Modelo enriquecido/Modelo Requerimientos.xlsx
+++ b/Clase/Modelado de dominio/Modelo enriquecido/Modelo Requerimientos.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\DOO\Proyecto-Documentacion\Clase\Modelado de dominio\Modelo enriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B6227C-25FC-4E20-83DF-2CDB4413BF87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9201F-413E-4293-A3E6-6876204A5962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="3" activeTab="3" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="11" activeTab="16" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Presupuesto Datos Simulados" sheetId="9" r:id="rId2"/>
-    <sheet name="Modelo de Dominio" sheetId="3" r:id="rId3"/>
-    <sheet name="Objetos del dominio" sheetId="2" r:id="rId4"/>
-    <sheet name="Presupuesto" sheetId="7" r:id="rId5"/>
-    <sheet name="Rubro" sheetId="10" r:id="rId6"/>
-    <sheet name="Tipo Rubro" sheetId="4" r:id="rId7"/>
-    <sheet name="Tipo Rubro Datos Simulados" sheetId="5" r:id="rId8"/>
+    <sheet name="Modelo de Dominio" sheetId="3" r:id="rId2"/>
+    <sheet name="Objetos del dominio" sheetId="2" r:id="rId3"/>
+    <sheet name="Tipo Detalle de Presupuesto" sheetId="14" r:id="rId4"/>
+    <sheet name="Ejecucion Detalle Presupuesto" sheetId="20" r:id="rId5"/>
+    <sheet name="Historial Detalle Presupuesto" sheetId="15" r:id="rId6"/>
+    <sheet name="Detalle de Presupuesto" sheetId="12" r:id="rId7"/>
+    <sheet name="Presupuesto" sheetId="7" r:id="rId8"/>
+    <sheet name="Rubro" sheetId="10" r:id="rId9"/>
+    <sheet name="Compromiso Financiero" sheetId="13" r:id="rId10"/>
+    <sheet name="Tipo Compromiso Financiero" sheetId="11" r:id="rId11"/>
+    <sheet name="Mes" sheetId="17" r:id="rId12"/>
+    <sheet name="Año" sheetId="16" r:id="rId13"/>
+    <sheet name="Persona" sheetId="19" r:id="rId14"/>
+    <sheet name="Rol Persona" sheetId="18" r:id="rId15"/>
+    <sheet name="Tipo Rubro" sheetId="4" r:id="rId16"/>
+    <sheet name="Rubro Datos Simulados" sheetId="21" r:id="rId17"/>
+    <sheet name="Tipo Rubro Datos Simulados" sheetId="5" r:id="rId18"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="160">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -235,9 +245,6 @@
     <t>Entidad que representa un presupuesto, lo cual corresponde al dinero que se va a administrar.  Por ejemplo un presupuesto puede ser la cantidad determinada de dinero que poseo y pienso cotizar para mis gastos de ocio en el año.</t>
   </si>
   <si>
-    <t>Detalle presupuesto</t>
-  </si>
-  <si>
     <t>Año</t>
   </si>
   <si>
@@ -247,33 +254,12 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>Tipo detalle presupuesto</t>
-  </si>
-  <si>
-    <t>Ejecucion real detalle presupuesto</t>
-  </si>
-  <si>
-    <t>Historia detalle de presupuesto</t>
-  </si>
-  <si>
     <t>Entidad que representa un año, la cual corresponde al año vigente en que se va a regir el registro del presupuesto correspondiente.</t>
   </si>
   <si>
-    <t>Entidad que representa un detalle de presupuesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entidad que representa una ejecucion real del detalle del presupuesto,  </t>
-  </si>
-  <si>
     <t>Entidad que representa una persona, lo cual corresponde a la persona encargada de registrar, administrar o ver el el historial del presupuesto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Entidad que representa un detalle de presupuesto, </t>
-  </si>
-  <si>
-    <t>compromiso financiero</t>
-  </si>
-  <si>
     <t>Rol persona</t>
   </si>
   <si>
@@ -320,6 +306,222 @@
   </si>
   <si>
     <t>Entidad que representa una historial del detalle del presupuesto, la cual corresponde a la historia (trazabilidad) que ha tenido un detalle de presupuesto; por ejemplo, una historia de presupuesto presentaria los diferentes movimientos o acciones que se han realizado en un detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Entidad que representa un detalle de presupuesto, lo cual representa a la clase en la cual pertenece un determinado detalle de presupuesto determinado.</t>
+  </si>
+  <si>
+    <t>Compromiso Financiero</t>
+  </si>
+  <si>
+    <t>Detalle Presupuesto</t>
+  </si>
+  <si>
+    <t>Tipo Detalle Presupuesto</t>
+  </si>
+  <si>
+    <t>Ejecucion Real Detalle Presupuesto</t>
+  </si>
+  <si>
+    <t>Historia Detalle de Presupuesto</t>
+  </si>
+  <si>
+    <t>Entidad que representa un detalle de presupuesto, lo cual corresponde a un detallamiento de un presupuesto determinado. Por ejemplo un detalle de presupuesto es el mes del gasto, la persona implicada, el tipo de gasto, el gasto y el valor gastado.</t>
+  </si>
+  <si>
+    <t>Entidad que representa una ejecucion real del detalle del presupuesto, lo cual corresponde a la ejecucion real de un detalle de presupuesto determinado, en otras palabras la ejecucion real detalle de presupuesto es la realizacion final de este detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un tipo de compromiso financiero, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un tipo de compromiso financiero determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un tipo de compromiso financiero determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que indica si el tipo de compromiso financiero esta activo o inactivo. Lo que indica si puede se utlizado.</t>
+  </si>
+  <si>
+    <t>No es posible tener un tipo de  compromiso financiero con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un compromiso financiero, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un compromiso financiero determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un compromiso financiero determinado.</t>
+  </si>
+  <si>
+    <t>Tipo de compromiso financiero</t>
+  </si>
+  <si>
+    <t>Atributo que indica el tipo de compromiso financiero al cual pertenece un compromiso financiero determinado.</t>
+  </si>
+  <si>
+    <t>Fecha vencimiento</t>
+  </si>
+  <si>
+    <t>Formato de fecha estandar.</t>
+  </si>
+  <si>
+    <t>Atributo que representa la fecha de vencimiento de un compromiso financiero determinado.</t>
+  </si>
+  <si>
+    <t>Fecha de registro</t>
+  </si>
+  <si>
+    <t>Atributo que representa la fecha de registro de un tipo de compromiso financiero determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un detalle de presupuesto, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un detalle de presupuesto determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un tipo detalle de presupuesto, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un  tipo detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un tipo detalle de presupuesto determinado.</t>
+  </si>
+  <si>
+    <t>Detalle de Presupuesto</t>
+  </si>
+  <si>
+    <t>Atributo que indica si el tipo de detalle de presupuesto esta activo inactivo. Lo que indica si puede se utlizado.</t>
+  </si>
+  <si>
+    <t>No es posible tener un mismo tipo de detalle de presupuesto con el mismo nombre</t>
+  </si>
+  <si>
+    <t>No es posible tener un mismo detalle de presupuesto con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Atributo que representa el presupuesto que tiene un detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Tipo de detalle de presupuesto</t>
+  </si>
+  <si>
+    <t>Atributo que representa el tipo de detalle de presupuesto al que pertenece un detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de una historia de detalle de presupuesto, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de una historia de detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a una historia de detalle de presupuesto determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el detalle de presupuesto al que esta asociado la historia de detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un año, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un año determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un año determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa la persona a la que corresponde (se relaciona) con el presupuesto determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el año al que le corresponde ese presupuesto.</t>
+  </si>
+  <si>
+    <t>No es posible tener un año con el mismo nombre</t>
+  </si>
+  <si>
+    <t>No es posible tener un misma historia de detalle de presupuesto con el mismo nombre</t>
+  </si>
+  <si>
+    <t>No es posible tener un mes con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un mes, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un mes determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un mes determinado.</t>
+  </si>
+  <si>
+    <t>No es posible tener un rol persona con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un rol persona, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un rol persona determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un rol persona determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que indica si el rol persona esta activo o inactivo. Lo que indica si puede se utlizado.</t>
+  </si>
+  <si>
+    <t>Rol de persona</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a una persona determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de una persona, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de una persona determinada.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en el rol que ejecuta una determinada persona.</t>
+  </si>
+  <si>
+    <t>No es posible tener una persona con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Atributo que representa el detalle de presupuesto al que esta asociado la ejecucion real de detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a una ejecucion real de detalle de presupuesto. determinada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributo que representa el nombre de una ejecucion real de detalle de presupuesto. </t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de una ejecucion real de detalle de presupuesto, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>No es posible tener un misma ejecucion real de detalle de presupuesto con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Atributo que representa el mes al que pertenece (se asocia) a un detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Comida</t>
+  </si>
+  <si>
+    <t>GYM</t>
+  </si>
+  <si>
+    <t>Rubro que representa los gastos asociados con la alimentacion.</t>
+  </si>
+  <si>
+    <t>Rubro que representa los gastos asociados con el servicio de gimnasio.</t>
   </si>
 </sst>
 </file>
@@ -484,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -564,9 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,9 +781,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,6 +792,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,282 +1454,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3844A86B-0521-4549-BA1F-FEFB05B5AEE4}">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="60" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="str">
-        <f>'Tipo Rubro'!$A$6</f>
-        <v>Identificador</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <f>'Tipo Rubro'!$A$7</f>
-        <v>Nombre</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f>'Tipo Rubro'!$A$8</f>
-        <v>Descripción</v>
-      </c>
-      <c r="D2" s="8" t="str">
-        <f>'Tipo Rubro'!$A$9</f>
-        <v>Estado</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'Tipo Rubro'!A6" display="'Tipo Rubro'!A6" xr:uid="{E2B9F60D-89B9-40C1-AB03-1A0061E4C45D}"/>
-    <hyperlink ref="B2" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{58B3889A-999E-4C14-862E-2E2A64CE0651}"/>
-    <hyperlink ref="C2" location="'Tipo Rubro'!A8" display="'Tipo Rubro'!A8" xr:uid="{A363DF12-4CB7-4B9F-B67F-77C734524740}"/>
-    <hyperlink ref="D2" location="'Tipo Rubro'!A9" display="'Tipo Rubro'!A9" xr:uid="{004C5B62-517D-4A6C-B405-63ED0A47E354}"/>
-    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{8923BDE2-B3BF-4349-843A-6E24BDB59CF3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8BBC7BC-6C5D-4C2C-AD37-18C3F2D0A2E3}">
-          <x14:formula1>
-            <xm:f>Valores!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED245ED7-D35C-472E-8F69-175F76F9003C}">
-  <dimension ref="A1:R48"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I16"/>
-    </row>
-    <row r="48" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R48"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A284BF0-0165-41C9-9049-BA0135A5A147}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="85.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'Tipo Rubro'!A1" display="Tipo Rubro" xr:uid="{E4B69573-E670-4D7C-BD4B-44D47D1A3F5D}"/>
-    <hyperlink ref="A4" location="Presupuesto!A1" display="Presupuesto" xr:uid="{19382135-7A64-42A9-8DE0-CFB024795B8B}"/>
-    <hyperlink ref="A3" location="Rubro!A1" display="Rubro" xr:uid="{191EC015-DD9D-4C48-803A-3FFBC10161F6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6BF95E-DE39-44F9-9DD4-249AD6037D95}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED91CA7-8DA1-4935-AB37-FD413BBFCFB5}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,75 +1485,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="35" t="str">
-        <f>'Objetos del dominio'!$A$4</f>
-        <v>Presupuesto</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$9</f>
+        <v>Compromiso Financiero</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="35" t="str">
-        <f>'Objetos del dominio'!$B$4</f>
-        <v>Entidad que representa un presupuesto, lo cual corresponde al dinero que se va a administrar.  Por ejemplo un presupuesto puede ser la cantidad determinada de dinero que poseo y pienso cotizar para mis gastos de ocio en el año.</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$9</f>
+        <v>Entidad que representa el compromiso financiero, lo cual correspende a un compromiso financiero al que esta ligado a cierta persona.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1695,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -1780,28 +1731,24 @@
         <v>9</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14">
-        <v>100000</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="13" t="s">
-        <v>60</v>
+      <c r="H9" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
@@ -1821,16 +1768,16 @@
         <v>9</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>4</v>
+    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1838,15 +1785,13 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>8</v>
+      <c r="L10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>8</v>
@@ -1857,9 +1802,10 @@
       <c r="O10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="P10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1878,7 +1824,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C14" s="19" t="str">
         <f>$A$7</f>
@@ -1887,10 +1833,10 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="44" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -1898,8 +1844,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="20" t="s">
         <v>56</v>
       </c>
@@ -1916,22 +1862,459 @@
     <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D646EF7A-8477-465E-AECF-D5C124032B0F}"/>
-    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{FFBF06E6-FA28-40CC-A0DF-DE154162012B}"/>
-    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{356BBBC6-F6FE-4ECC-9EB8-B5122B550589}"/>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{51CDC150-31D1-4593-A8FF-294736D36458}"/>
+    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{CF059AD4-D0FB-484C-9136-6DDB26EDF084}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{8D8F8FB3-ED87-4350-B72A-2080462A93A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA9820F8-28FF-4849-8FE9-B3075CB0FB98}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DC7C57C-A678-4E51-B7B6-A5B4DFDE4E87}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70368617-2D23-47ED-8BA6-44EAD502FA3E}">
           <x14:formula1>
             <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K6:O10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A85B0E1-FABE-4992-AC62-511976184061}">
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B52C23-D713-4BF6-8C80-CB2C10754700}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$10</f>
+        <v>Tipo de Compromiso Financiero</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!B10</f>
+        <v>Entidad que representa un tipo de compromiso financiero, lo cual corresponde a la categoria a la que pertenece un compromiso financiero determinado.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{AE9B2EA7-0962-4AF3-AD7E-02C746AD28A8}"/>
+    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{5C5ACB44-B006-45A5-8307-1EAAAA3C69BC}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{D408AA5F-DD0E-4A39-9342-A92B01259BA4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BFFBECF-EA86-4EE9-9882-2A8158921F93}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AAED962-8EA4-4BD9-89A1-100F42E2B403}">
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -1943,12 +2326,1142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F4AE9-BFD2-448F-941F-BA68BA1CB325}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D6EA82-8CA9-49E4-8DC3-034E1D8A9185}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!A11</f>
+        <v>Mes</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$11</f>
+        <v>Entidad que representa un mes, la cual corresponde a un mes en donde se esta administrando el presupuesto. Por ejemplo en el mes febrero se ha realizado x total de gastos.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{F14FBAC6-DAB3-4078-8FC4-50FE1CD91E3A}"/>
+    <hyperlink ref="C12" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{6823D7A2-9BD3-46BA-BEBD-E79CBFB3447F}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{FFE0D547-5E62-4348-8B38-113723DFFDEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE40F0DA-971F-498E-97F3-43A5D36E1AE1}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04B6680B-F744-4D7C-90C0-B81618C1FFA5}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFED9275-9087-4EC4-879A-7B501315776C}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$6</f>
+        <v>Año</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$6</f>
+        <v>Entidad que representa un año, la cual corresponde al año vigente en que se va a regir el registro del presupuesto correspondiente.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{3C5447C1-EEFB-47FD-9943-4D9675D9191E}"/>
+    <hyperlink ref="C12" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{312F326F-D4EE-4691-8D50-530E01C7038C}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{6AF6F546-5BBA-47EF-9A9A-836893C57BBB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D83E3851-A8B8-44F6-B13A-AED19CB3EB78}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5012287C-E79D-42BA-B6F5-2AEED43DEEC3}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABB2E0E-6C9B-4C5E-8689-B653E595CD42}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$7</f>
+        <v>Persona</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$7</f>
+        <v>Entidad que representa una persona, lo cual corresponde a la persona encargada de registrar, administrar o ver el el historial del presupuesto.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{8CFF7F28-3055-4D0C-A40E-E6071512BFF6}"/>
+    <hyperlink ref="C13" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{2C7E35CA-3E12-4200-B0D9-C519D15D6E2B}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{78BD5166-D357-456C-8EB5-CA8CCBAF2BA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{958AE51A-659F-4F87-BBCF-E2B7BD5FD4BB}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B71717EB-EAC3-458F-A271-2C833E460FF0}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319F9153-E8FB-4A7B-8FAE-898147A0D849}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -1974,75 +3487,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="35" t="str">
-        <f>'Objetos del dominio'!$A$3</f>
-        <v>Rubro</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$8</f>
+        <v>Rol persona</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="35" t="str">
-        <f>'Objetos del dominio'!$B$3</f>
-        <v>Entidad que representa un rubro, el cual corresponde al rubro determinado que representa cada uno de los conceptos en que se divide el presupuesto. Por ejemplo un rubro puede ser  (reparacion, gimnasio, ocio, alimentacion).</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$8</f>
+        <v>Entidad que representa el rol de una persona, lo cual corresponde al tipo de rol que realiza, desempeña una persona en la aplicacion. Por ejemplo una persona que representa a un administrador puede asignar el rol de lector a otros usuarios.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2059,7 +3572,7 @@
       <c r="D5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -2135,7 +3648,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -2220,7 +3733,7 @@
         <v>9</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
@@ -2257,117 +3770,84 @@
         <v>9</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="19" t="str">
+      <c r="B13" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="19" t="str">
         <f>$A$7</f>
         <v>Nombre</v>
       </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>47</v>
-      </c>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="20" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{6B85B5FE-2057-4E16-858D-FA913A4D9570}"/>
-    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{9DB79878-8BB4-490F-B05B-D89FEC395D82}"/>
-    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{8EECAE49-2CD0-4F00-8E77-AE3C35161119}"/>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D93000CF-6B8A-4BA9-ACDC-F8E3A0B36DA6}"/>
+    <hyperlink ref="C13" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{EC53F78D-7006-44BC-A069-0A9FC628FF26}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{85C0E0A3-117E-4354-95CE-C547124C4C31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0F83421D-A87F-4DE7-B1E1-C355DFFF6BED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E8709A0-08F6-4A3B-A485-F19B96CE4394}">
           <x14:formula1>
             <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:O10</xm:sqref>
+          <xm:sqref>K6:O9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14919565-C8A3-4E58-8540-B4DF925F404B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{296EA49F-4ACD-4C3F-9218-D72B5DED5607}">
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -2379,13 +3859,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE51E2DA-11A9-4464-A5CD-C773B3EEB075}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,72 +3890,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="35" t="str">
+      <c r="B2" s="41" t="str">
         <f>'Objetos del dominio'!$A$2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="35" t="str">
+      <c r="B3" s="41" t="str">
         <f>'Objetos del dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertenece un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro puede ser ingreso, el cual indica que los rubros categorizados con el, corresponde a dinero que la persona va a recibir por diferentes razones (salario, inversiones, ganancias ocasionales).</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -2722,10 +4202,10 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -2734,8 +4214,8 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="20" t="s">
         <v>56</v>
       </c>
@@ -2782,12 +4262,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F461CE8-DBF0-4CFA-B6A6-4FAC14A3B074}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="str">
+        <f>Rubro!$A$6</f>
+        <v>Identificador</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>Rubro!$A$7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>'Tipo Rubro'!$A$8</f>
+        <v>Descripción</v>
+      </c>
+      <c r="D2" s="38" t="str">
+        <f>Rubro!$A$10</f>
+        <v>Tipo de Rubro</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'Tipo Rubro'!A6" display="'Tipo Rubro'!A6" xr:uid="{FA96B256-25DC-42F3-9C3C-B17E170CEAD9}"/>
+    <hyperlink ref="B2" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{E0C54019-ECB8-4FF0-8B93-B79D1A9CDB71}"/>
+    <hyperlink ref="C2" location="'Tipo Rubro'!A8" display="'Tipo Rubro'!A8" xr:uid="{8FDB3DCC-BED3-400B-9E63-5CB517BA9C02}"/>
+    <hyperlink ref="D2" location="'Tipo Rubro'!A9" display="'Tipo Rubro'!A9" xr:uid="{50E5AC95-9C79-4F2A-A724-EFA527131FC7}"/>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{17162FC0-DFD2-4F14-887C-00D016FB3063}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA96604-4B13-4B12-98BE-8AE02AB9A202}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,24 +4371,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -2886,4 +4461,2743 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED245ED7-D35C-472E-8F69-175F76F9003C}">
+  <dimension ref="A1:R48"/>
+  <sheetViews>
+    <sheetView topLeftCell="E3" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A284BF0-0165-41C9-9049-BA0135A5A147}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="85.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'Tipo Rubro'!A1" display="Tipo Rubro" xr:uid="{E4B69573-E670-4D7C-BD4B-44D47D1A3F5D}"/>
+    <hyperlink ref="A4" location="Presupuesto!A1" display="Presupuesto" xr:uid="{19382135-7A64-42A9-8DE0-CFB024795B8B}"/>
+    <hyperlink ref="A3" location="Rubro!A1" display="Rubro" xr:uid="{191EC015-DD9D-4C48-803A-3FFBC10161F6}"/>
+    <hyperlink ref="A10" location="'Tipo Compromiso Financiero'!A1" display="Tipo de Compromiso Financiero" xr:uid="{17F05469-8F7F-4C6E-B4C8-6BDE0C0402F1}"/>
+    <hyperlink ref="A9" location="'Compromiso Financiero'!A1" display="Compromiso Financiero" xr:uid="{9BF156D4-8C14-4902-A5D7-4C4C94B4AEFF}"/>
+    <hyperlink ref="A5" location="'Detalle de Presupuesto'!A1" display="Detalle Presupuesto" xr:uid="{A10AA107-898D-4ED4-9409-1D5CB4EA52B6}"/>
+    <hyperlink ref="A12" location="'Tipo Detalle de Presupuesto'!A1" display="Tipo Detalle Presupuesto" xr:uid="{D6455972-E142-45EE-A72C-40111DAF5E46}"/>
+    <hyperlink ref="A14" location="'Historial Detalle Presupuesto'!A1" display="Historia Detalle de Presupuesto" xr:uid="{681D3EB6-6126-428E-A911-07630EBCA9DF}"/>
+    <hyperlink ref="A11" location="Mes!A1" display="Mes" xr:uid="{39D98D45-9E1B-4BD8-ACE6-AEFBFA78DE31}"/>
+    <hyperlink ref="A6" location="Año!A1" display="Año" xr:uid="{FB1B2E47-E9FF-48A6-9FC6-A968BEAA5F8B}"/>
+    <hyperlink ref="A7" location="Persona!A1" display="Persona" xr:uid="{DE24359A-6FDA-4638-B04D-2797C3CA7460}"/>
+    <hyperlink ref="A8" location="'Rol Persona'!A1" display="Rol persona" xr:uid="{110A8BE4-F291-4651-930D-66B650E4A112}"/>
+    <hyperlink ref="A13" location="'Ejecucion Detalle Presupuesto'!A1" display="Ejecucion Real Detalle Presupuesto" xr:uid="{542F3665-6CC2-4111-8588-B58B20945114}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03C7741-0667-45B5-A6D6-140E1C331D6F}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$5</f>
+        <v>Detalle Presupuesto</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!B5</f>
+        <v>Entidad que representa un detalle de presupuesto, lo cual corresponde a un detallamiento de un presupuesto determinado. Por ejemplo un detalle de presupuesto es el mes del gasto, la persona implicada, el tipo de gasto, el gasto y el valor gastado.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{121D7237-0259-4150-B030-CEF1CF32673D}"/>
+    <hyperlink ref="C13" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{3F17C18F-D544-4431-8009-BFE6E32A6443}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{DFFFB462-DF12-4DF2-A342-3A51B3D9442D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{548BCDE6-D9AA-4F07-BA22-1FD1E33CC4A6}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8 B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF803552-6545-4AE9-A6AB-17A64D5FF4B7}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113B06CF-AF5A-4559-95EB-900367FBC952}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$13</f>
+        <v>Ejecucion Real Detalle Presupuesto</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$13</f>
+        <v>Entidad que representa una ejecucion real del detalle del presupuesto, lo cual corresponde a la ejecucion real de un detalle de presupuesto determinado, en otras palabras la ejecucion real detalle de presupuesto es la realizacion final de este detalle de presupuesto.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{3E9A830D-7C47-42E9-988D-D322063BEDC2}"/>
+    <hyperlink ref="C13" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{5C5C6773-2BC4-4770-8FDC-8619138610A8}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{EF96869A-379B-4035-900C-9334D07259A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7157A336-9510-496E-8DA5-844130F4F908}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{274836A2-53B8-4361-8845-95F2A768EE49}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9372FB6-99B1-4869-9469-2CB9D39A3267}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$14</f>
+        <v>Historia Detalle de Presupuesto</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$14</f>
+        <v>Entidad que representa una historial del detalle del presupuesto, la cual corresponde a la historia (trazabilidad) que ha tenido un detalle de presupuesto; por ejemplo, una historia de presupuesto presentaria los diferentes movimientos o acciones que se han realizado en un detalle de presupuesto.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{FD1F1CAE-4C3D-4742-AA29-D1082BCD5770}"/>
+    <hyperlink ref="C13" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{DD52894F-BF8B-4FA3-9DA6-F0C392D5E7E8}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{00D7FD85-6579-4DAB-AAE1-853775780AB2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E360B0E6-240E-4A77-841F-04E8F0F02073}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B8D396D-BD2A-4201-93B4-B94470639EBC}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9001C6FB-6E69-4FD7-B7A1-E99D4D3B49D5}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$5</f>
+        <v>Detalle Presupuesto</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!B5</f>
+        <v>Entidad que representa un detalle de presupuesto, lo cual corresponde a un detallamiento de un presupuesto determinado. Por ejemplo un detalle de presupuesto es el mes del gasto, la persona implicada, el tipo de gasto, el gasto y el valor gastado.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{F7A4D54D-BEC1-4308-A33E-0D754F80EE16}"/>
+    <hyperlink ref="C15" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{AAB79EDA-0FD3-49B9-BA68-CC67921399CC}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{85EFC8BE-0F4E-47CB-A663-8A6A369B8976}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{619D1535-8B6C-4D0E-823D-C6114AE5B52B}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9316C98-6C01-4D9D-800D-97BC4D23A39C}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6BF95E-DE39-44F9-9DD4-249AD6037D95}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$4</f>
+        <v>Presupuesto</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$4</f>
+        <v>Entidad que representa un presupuesto, lo cual corresponde al dinero que se va a administrar.  Por ejemplo un presupuesto puede ser la cantidad determinada de dinero que poseo y pienso cotizar para mis gastos de ocio en el año.</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D646EF7A-8477-465E-AECF-D5C124032B0F}"/>
+    <hyperlink ref="C15" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{FFBF06E6-FA28-40CC-A0DF-DE154162012B}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{356BBBC6-F6FE-4ECC-9EB8-B5122B550589}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA9820F8-28FF-4849-8FE9-B3075CB0FB98}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A85B0E1-FABE-4992-AC62-511976184061}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F4AE9-BFD2-448F-941F-BA68BA1CB325}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="41" t="str">
+        <f>'Objetos del dominio'!$A$3</f>
+        <v>Rubro</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f>'Objetos del dominio'!$B$3</f>
+        <v>Entidad que representa un rubro, el cual corresponde al rubro determinado que representa cada uno de los conceptos en que se divide el presupuesto. Por ejemplo un rubro puede ser  (reparacion, gimnasio, ocio, alimentacion).</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{6B85B5FE-2057-4E16-858D-FA913A4D9570}"/>
+    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{9DB79878-8BB4-490F-B05B-D89FEC395D82}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{8EECAE49-2CD0-4F00-8E77-AE3C35161119}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0F83421D-A87F-4DE7-B1E1-C355DFFF6BED}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14919565-C8A3-4E58-8540-B4DF925F404B}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Clase/Modelado de dominio/Modelo enriquecido/Modelo Requerimientos.xlsx
+++ b/Clase/Modelado de dominio/Modelo enriquecido/Modelo Requerimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\DOO\Proyecto-Documentacion\Clase\Modelado de dominio\Modelo enriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9201F-413E-4293-A3E6-6876204A5962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8095160-94CC-4642-B57F-9832EC2D26C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="11" activeTab="16" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="9" activeTab="13" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="198">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -522,13 +522,127 @@
   </si>
   <si>
     <t>Rubro que representa los gastos asociados con el servicio de gimnasio.</t>
+  </si>
+  <si>
+    <t>Responsabilidad</t>
+  </si>
+  <si>
+    <t>Eliminar Persona</t>
+  </si>
+  <si>
+    <t>Modificar Persona</t>
+  </si>
+  <si>
+    <t>Consultar Persona</t>
+  </si>
+  <si>
+    <t>Registrar Persona</t>
+  </si>
+  <si>
+    <t>Asignar Rol Persona</t>
+  </si>
+  <si>
+    <t>Consultar Rol Persona</t>
+  </si>
+  <si>
+    <t>Modificar Rol Persona</t>
+  </si>
+  <si>
+    <t>Designar Rol Persona</t>
+  </si>
+  <si>
+    <t>Consultar Historia Detalle de presupuesto</t>
+  </si>
+  <si>
+    <t>Crear Historia Detalle de Presupuesto</t>
+  </si>
+  <si>
+    <t>Fecha creacion</t>
+  </si>
+  <si>
+    <t>Atributo que representa la fecha de creacion de una historia de detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite registrar la informacion de una persona.</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite consultar la informacion de una persona existente, que cumpla con los filtros de consultas recibidos.</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite modificar la informacion de una persona existente.</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite dar de baja definitivamente la informacion de una persona existente</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite registrar la informacion de una historia de detalle de presupuesto.</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite consultar la informacion de una historia de detalle de presupuesto existente. Siempre y cuando cumpla los filtros de consulta recibidos.</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite asignar un rol a una persona determinada.</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite consultar la informacion de un rol de persona existente, siempre que cumpla con los filtros de consultas recibidos.</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite modificar la informacion de un rol de persona.</t>
+  </si>
+  <si>
+    <t>Comportamiento que permite dar de baja definitivamente un rol de persona determinado.</t>
+  </si>
+  <si>
+    <t>No requiere</t>
+  </si>
+  <si>
+    <t>Requiere</t>
+  </si>
+  <si>
+    <t>Filtro/Mostrar</t>
+  </si>
+  <si>
+    <t>No modificable</t>
+  </si>
+  <si>
+    <t>Modificable</t>
+  </si>
+  <si>
+    <t>No Modificable</t>
+  </si>
+  <si>
+    <t>Combinaciones unicas</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Persona { codigo,</t>
+  </si>
+  <si>
+    <t>Persona {codigo}</t>
+  </si>
+  <si>
+    <t>Historia de Detalle de Presupuesto</t>
+  </si>
+  <si>
+    <t>Rol Persona</t>
+  </si>
+  <si>
+    <t>Rol Persona {codigo}</t>
+  </si>
+  <si>
+    <t>Rol Persona { codigo, nombre, descripcion}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,8 +681,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,8 +744,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -676,6 +821,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -686,7 +868,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -822,6 +1004,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1893,9 +2123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B52C23-D713-4BF6-8C80-CB2C10754700}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15:I18"/>
+    <sheetView topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,11 +3290,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABB2E0E-6C9B-4C5E-8689-B653E595CD42}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,10 +3315,13 @@
     <col min="14" max="14" width="11.42578125" style="10"/>
     <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
     <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="10"/>
+    <col min="17" max="17" width="17.5703125" style="10" customWidth="1"/>
+    <col min="18" max="19" width="17.28515625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
@@ -3108,7 +3341,7 @@
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
@@ -3132,7 +3365,7 @@
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
@@ -3156,12 +3389,12 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
@@ -3207,11 +3440,27 @@
       <c r="O5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="63" t="str">
+        <f>$A$17</f>
+        <v>Registrar Persona</v>
+      </c>
+      <c r="R5" s="62" t="str">
+        <f>$A$18</f>
+        <v>Consultar Persona</v>
+      </c>
+      <c r="S5" s="62" t="str">
+        <f>$A$19</f>
+        <v>Modificar Persona</v>
+      </c>
+      <c r="T5" s="62" t="str">
+        <f>$A$20</f>
+        <v>Eliminar Persona</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3252,8 +3501,20 @@
       <c r="P6" s="22" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S6" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -3294,10 +3555,21 @@
       <c r="P7" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="Q7" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -3337,9 +3609,20 @@
       <c r="P8" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="T8" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>144</v>
       </c>
@@ -3372,9 +3655,27 @@
       <c r="P9" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Q9" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+    </row>
+    <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>44</v>
       </c>
@@ -3386,7 +3687,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>46</v>
       </c>
@@ -3399,34 +3700,120 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    <row r="14" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="56"/>
+    </row>
+    <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{8CFF7F28-3055-4D0C-A40E-E6071512BFF6}"/>
@@ -3458,11 +3845,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319F9153-E8FB-4A7B-8FAE-898147A0D849}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,10 +3870,14 @@
     <col min="14" max="14" width="11.42578125" style="10"/>
     <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
     <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="10"/>
+    <col min="17" max="17" width="21.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
@@ -3506,7 +3897,7 @@
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
@@ -3530,7 +3921,7 @@
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
@@ -3554,12 +3945,12 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
@@ -3608,8 +3999,24 @@
       <c r="P5" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="63" t="str">
+        <f>$A$17</f>
+        <v>Asignar Rol Persona</v>
+      </c>
+      <c r="R5" s="63" t="str">
+        <f>$A$18</f>
+        <v>Consultar Rol Persona</v>
+      </c>
+      <c r="S5" s="63" t="str">
+        <f>$A$19</f>
+        <v>Modificar Rol Persona</v>
+      </c>
+      <c r="T5" s="63" t="str">
+        <f>$A$20</f>
+        <v>Designar Rol Persona</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +4057,20 @@
       <c r="P6" s="22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S6" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -3692,9 +4111,20 @@
       <c r="P7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -3735,9 +4165,20 @@
       <c r="P8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="T8" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
@@ -3772,9 +4213,20 @@
       <c r="P9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Q9" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>44</v>
       </c>
@@ -3785,7 +4237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>46</v>
       </c>
@@ -3798,38 +4250,113 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>52</v>
-      </c>
+    <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="56"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="18">
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D93000CF-6B8A-4BA9-ACDC-F8E3A0B36DA6}"/>
@@ -3865,7 +4392,7 @@
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4266,7 +4793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F461CE8-DBF0-4CFA-B6A6-4FAC14A3B074}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView zoomScale="103" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4645,7 +5172,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -5433,11 +5960,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9372FB6-99B1-4869-9469-2CB9D39A3267}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,10 +5985,12 @@
     <col min="14" max="14" width="11.42578125" style="10"/>
     <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
     <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="10"/>
+    <col min="17" max="17" width="37" style="10" customWidth="1"/>
+    <col min="18" max="18" width="40.140625" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
@@ -5481,7 +6010,7 @@
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
@@ -5505,7 +6034,7 @@
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
@@ -5529,12 +6058,12 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
@@ -5583,8 +6112,16 @@
       <c r="P5" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="62" t="str">
+        <f>$A$18</f>
+        <v>Crear Historia Detalle de Presupuesto</v>
+      </c>
+      <c r="R5" s="62" t="str">
+        <f>$A$19</f>
+        <v>Consultar Historia Detalle de presupuesto</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -5625,8 +6162,14 @@
       <c r="P6" s="22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" s="55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -5667,9 +6210,14 @@
       <c r="P7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -5710,9 +6258,14 @@
       <c r="P8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>117</v>
       </c>
@@ -5745,62 +6298,149 @@
       <c r="P9" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    </row>
+    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="19" t="str">
+      <c r="C14" s="19" t="str">
         <f>$A$7</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="20" t="s">
-        <v>56</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{FD1F1CAE-4C3D-4742-AA29-D1082BCD5770}"/>
-    <hyperlink ref="C13" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{DD52894F-BF8B-4FA3-9DA6-F0C392D5E7E8}"/>
+    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{DD52894F-BF8B-4FA3-9DA6-F0C392D5E7E8}"/>
     <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{00D7FD85-6579-4DAB-AAE1-853775780AB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5812,13 +6452,13 @@
           <x14:formula1>
             <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:O9</xm:sqref>
+          <xm:sqref>K6:O10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B8D396D-BD2A-4201-93B4-B94470639EBC}">
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B8</xm:sqref>
+          <xm:sqref>B6:B8 B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5830,8 +6470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9001C6FB-6E69-4FD7-B7A1-E99D4D3B49D5}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="H1" zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -6298,8 +6938,8 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6685,10 +7325,10 @@
       </c>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6771,7 +7411,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>

--- a/Clase/Modelado de dominio/Modelo enriquecido/Modelo Requerimientos.xlsx
+++ b/Clase/Modelado de dominio/Modelo enriquecido/Modelo Requerimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\DOO\Proyecto-Documentacion\Clase\Modelado de dominio\Modelo enriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8095160-94CC-4642-B57F-9832EC2D26C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C6409-20FD-44DB-8359-1BB17D57DAEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="9" activeTab="13" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="4" activeTab="13" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="215">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -620,9 +620,6 @@
     <t>Entradas</t>
   </si>
   <si>
-    <t>Persona { codigo,</t>
-  </si>
-  <si>
     <t>Persona {codigo}</t>
   </si>
   <si>
@@ -636,6 +633,60 @@
   </si>
   <si>
     <t>Rol Persona { codigo, nombre, descripcion}</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Reglas de negocio</t>
+  </si>
+  <si>
+    <t>Persona-Politica-1</t>
+  </si>
+  <si>
+    <t>Excepcion</t>
+  </si>
+  <si>
+    <t>Ya existe una persona con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Se debe de asegurar que no exista mas de una Persona con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>Persona-Politica-2</t>
+  </si>
+  <si>
+    <t>Persona-Politica-3</t>
+  </si>
+  <si>
+    <t>Se debe de asegurar que exista la Persona con el identificador enviado.</t>
+  </si>
+  <si>
+    <t>Persona[]</t>
+  </si>
+  <si>
+    <t>Persona-Politica-4</t>
+  </si>
+  <si>
+    <t>Persona-Politica-5</t>
+  </si>
+  <si>
+    <t>Se debe de asegurar que exista la Persona con el nombre enviado.</t>
+  </si>
+  <si>
+    <t>Se debe de asegurar que exista la Persona con el Rol enviado.</t>
+  </si>
+  <si>
+    <t>Se debe asegura que el nuevo nombre a cambiar no exista.</t>
+  </si>
+  <si>
+    <t>Se debe asegura que la Persona ha eliminar si exista.</t>
+  </si>
+  <si>
+    <t>Persona-Politica-6</t>
+  </si>
+  <si>
+    <t>No existe una per</t>
   </si>
 </sst>
 </file>
@@ -695,7 +746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,8 +813,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -858,6 +927,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -868,7 +961,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -981,11 +1074,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,10 +1134,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1017,41 +1149,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1715,72 +1853,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$9</f>
         <v>Compromiso Financiero</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$9</f>
         <v>Entidad que representa el compromiso financiero, lo cual correspende a un compromiso financiero al que esta ligado a cierta persona.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -2063,10 +2201,10 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="56" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -2074,8 +2212,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="20" t="s">
         <v>56</v>
       </c>
@@ -2150,72 +2288,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$10</f>
         <v>Tipo de Compromiso Financiero</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!B10</f>
         <v>Entidad que representa un tipo de compromiso financiero, lo cual corresponde a la categoria a la que pertenece un compromiso financiero determinado.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -2500,10 +2638,10 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="56" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -2511,8 +2649,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="20" t="s">
         <v>56</v>
       </c>
@@ -2587,72 +2725,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!A11</f>
         <v>Mes</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$11</f>
         <v>Entidad que representa un mes, la cual corresponde a un mes en donde se esta administrando el presupuesto. Por ejemplo en el mes febrero se ha realizado x total de gastos.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -2862,10 +3000,10 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -2874,8 +3012,8 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="20" t="s">
         <v>56</v>
       </c>
@@ -2953,72 +3091,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$6</f>
         <v>Año</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$6</f>
         <v>Entidad que representa un año, la cual corresponde al año vigente en que se va a regir el registro del presupuesto correspondiente.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -3228,10 +3366,10 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -3240,8 +3378,8 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="20" t="s">
         <v>56</v>
       </c>
@@ -3290,11 +3428,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABB2E0E-6C9B-4C5E-8689-B653E595CD42}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,72 +3460,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$7</f>
         <v>Persona</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$7</f>
         <v>Entidad que representa una persona, lo cual corresponde a la persona encargada de registrar, administrar o ver el el historial del presupuesto.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -3443,19 +3581,19 @@
       <c r="P5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="63" t="str">
+      <c r="Q5" s="44" t="str">
         <f>$A$17</f>
         <v>Registrar Persona</v>
       </c>
-      <c r="R5" s="62" t="str">
+      <c r="R5" s="43" t="str">
         <f>$A$18</f>
         <v>Consultar Persona</v>
       </c>
-      <c r="S5" s="62" t="str">
+      <c r="S5" s="43" t="str">
         <f>$A$19</f>
         <v>Modificar Persona</v>
       </c>
-      <c r="T5" s="62" t="str">
+      <c r="T5" s="43" t="str">
         <f>$A$20</f>
         <v>Eliminar Persona</v>
       </c>
@@ -3501,16 +3639,16 @@
       <c r="P6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="Q6" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="55" t="s">
+      <c r="R6" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="40" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3555,16 +3693,16 @@
       <c r="P7" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="Q7" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R7" s="55" t="s">
+      <c r="R7" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="T7" s="55" t="s">
+      <c r="T7" s="40" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3609,16 +3747,16 @@
       <c r="P8" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="R8" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="T8" s="55" t="s">
+      <c r="T8" s="40" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3655,28 +3793,28 @@
       <c r="P9" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R9" s="55" t="s">
+      <c r="R9" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="T9" s="55" t="s">
+      <c r="T9" s="40" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-    </row>
-    <row r="12" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+    </row>
+    <row r="12" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -3703,117 +3841,260 @@
     <row r="14" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="49"/>
-    </row>
-    <row r="17" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="H16" s="48"/>
+      <c r="I16" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+    </row>
+    <row r="17" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="56" t="s">
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="H17" s="64"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" s="72"/>
+      <c r="M17" s="64"/>
+    </row>
+    <row r="18" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="H18" s="49"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+    </row>
+    <row r="19" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="56" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+    </row>
+    <row r="20" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="49"/>
+      <c r="I20" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
+  <mergeCells count="33">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{8CFF7F28-3055-4D0C-A40E-E6071512BFF6}"/>
@@ -3847,9 +4128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319F9153-E8FB-4A7B-8FAE-898147A0D849}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:B21"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,72 +4159,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$8</f>
         <v>Rol persona</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$8</f>
         <v>Entidad que representa el rol de una persona, lo cual corresponde al tipo de rol que realiza, desempeña una persona en la aplicacion. Por ejemplo una persona que representa a un administrador puede asignar el rol de lector a otros usuarios.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -3999,19 +4280,19 @@
       <c r="P5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="63" t="str">
+      <c r="Q5" s="44" t="str">
         <f>$A$17</f>
         <v>Asignar Rol Persona</v>
       </c>
-      <c r="R5" s="63" t="str">
+      <c r="R5" s="44" t="str">
         <f>$A$18</f>
         <v>Consultar Rol Persona</v>
       </c>
-      <c r="S5" s="63" t="str">
+      <c r="S5" s="44" t="str">
         <f>$A$19</f>
         <v>Modificar Rol Persona</v>
       </c>
-      <c r="T5" s="63" t="str">
+      <c r="T5" s="44" t="str">
         <f>$A$20</f>
         <v>Designar Rol Persona</v>
       </c>
@@ -4057,16 +4338,16 @@
       <c r="P6" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="Q6" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="55" t="s">
+      <c r="R6" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="40" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4111,16 +4392,16 @@
       <c r="P7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" s="58" t="s">
+      <c r="Q7" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="R7" s="55" t="s">
+      <c r="R7" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="T7" s="55" t="s">
+      <c r="T7" s="40" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4165,16 +4446,16 @@
       <c r="P8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="Q8" s="58" t="s">
+      <c r="Q8" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="R8" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="T8" s="55" t="s">
+      <c r="T8" s="40" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4213,16 +4494,16 @@
       <c r="P9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="R9" s="55" t="s">
+      <c r="R9" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="T9" s="55" t="s">
+      <c r="T9" s="40" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4258,87 +4539,95 @@
       <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="49"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="56" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="56" t="s">
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="56"/>
+      <c r="H20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G16:H16"/>
@@ -4349,14 +4638,6 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D93000CF-6B8A-4BA9-ACDC-F8E3A0B36DA6}"/>
@@ -4417,72 +4698,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertenece un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro puede ser ingreso, el cual indica que los rubros categorizados con el, corresponde a dinero que la persona va a recibir por diferentes razones (salario, inversiones, ganancias ocasionales).</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -4729,10 +5010,10 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -4741,8 +5022,8 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="20" t="s">
         <v>56</v>
       </c>
@@ -4804,24 +5085,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -4898,24 +5179,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -5198,72 +5479,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$5</f>
         <v>Detalle Presupuesto</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!B5</f>
         <v>Entidad que representa un detalle de presupuesto, lo cual corresponde a un detallamiento de un presupuesto determinado. Por ejemplo un detalle de presupuesto es el mes del gasto, la persona implicada, el tipo de gasto, el gasto y el valor gastado.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -5594,72 +5875,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$13</f>
         <v>Ejecucion Real Detalle Presupuesto</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$13</f>
         <v>Entidad que representa una ejecucion real del detalle del presupuesto, lo cual corresponde a la ejecucion real de un detalle de presupuesto determinado, en otras palabras la ejecucion real detalle de presupuesto es la realizacion final de este detalle de presupuesto.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -5991,72 +6272,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$14</f>
         <v>Historia Detalle de Presupuesto</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$14</f>
         <v>Entidad que representa una historial del detalle del presupuesto, la cual corresponde a la historia (trazabilidad) que ha tenido un detalle de presupuesto; por ejemplo, una historia de presupuesto presentaria los diferentes movimientos o acciones que se han realizado en un detalle de presupuesto.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -6112,11 +6393,11 @@
       <c r="P5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="62" t="str">
+      <c r="Q5" s="43" t="str">
         <f>$A$18</f>
         <v>Crear Historia Detalle de Presupuesto</v>
       </c>
-      <c r="R5" s="62" t="str">
+      <c r="R5" s="43" t="str">
         <f>$A$19</f>
         <v>Consultar Historia Detalle de presupuesto</v>
       </c>
@@ -6162,10 +6443,10 @@
       <c r="P6" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="Q6" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="55" t="s">
+      <c r="R6" s="40" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6210,10 +6491,10 @@
       <c r="P7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="Q7" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R7" s="55" t="s">
+      <c r="R7" s="40" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6258,10 +6539,10 @@
       <c r="P8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="R8" s="40" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6298,10 +6579,10 @@
       <c r="P9" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R9" s="55" t="s">
+      <c r="R9" s="40" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6338,10 +6619,10 @@
       <c r="P10" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="Q10" s="55" t="s">
+      <c r="Q10" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R10" s="55" t="s">
+      <c r="R10" s="40" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6373,58 +6654,61 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48" t="s">
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="I18" s="56"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="59" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="56"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
@@ -6434,9 +6718,6 @@
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{FD1F1CAE-4C3D-4742-AA29-D1082BCD5770}"/>
@@ -6497,72 +6778,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$5</f>
         <v>Detalle Presupuesto</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!B5</f>
         <v>Entidad que representa un detalle de presupuesto, lo cual corresponde a un detallamiento de un presupuesto determinado. Por ejemplo un detalle de presupuesto es el mes del gasto, la persona implicada, el tipo de gasto, el gasto y el valor gastado.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -6964,72 +7245,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$4</f>
         <v>Presupuesto</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$4</f>
         <v>Entidad que representa un presupuesto, lo cual corresponde al dinero que se va a administrar.  Por ejemplo un presupuesto puede ser la cantidad determinada de dinero que poseo y pienso cotizar para mis gastos de ocio en el año.</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -7437,72 +7718,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="46" t="str">
         <f>'Objetos del dominio'!$A$3</f>
         <v>Rubro</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Objetos del dominio'!$B$3</f>
         <v>Entidad que representa un rubro, el cual corresponde al rubro determinado que representa cada uno de los conceptos en que se divide el presupuesto. Por ejemplo un rubro puede ser  (reparacion, gimnasio, ocio, alimentacion).</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -7787,7 +8068,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="54" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -7798,7 +8079,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="30"/>
       <c r="C16" s="20" t="s">
         <v>56</v>

--- a/Clase/Modelado de dominio/Modelo enriquecido/Modelo Requerimientos.xlsx
+++ b/Clase/Modelado de dominio/Modelo enriquecido/Modelo Requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\DOO\Proyecto-Documentacion\Clase\Modelado de dominio\Modelo enriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C6409-20FD-44DB-8359-1BB17D57DAEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D762E1-206C-4BA0-86D1-AA5CAC036859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="4" activeTab="13" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
   </bookViews>
@@ -686,7 +686,7 @@
     <t>Persona-Politica-6</t>
   </si>
   <si>
-    <t>No existe una per</t>
+    <t>No existe una persona con el codigo mandado</t>
   </si>
 </sst>
 </file>
@@ -1089,6 +1089,33 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1134,6 +1161,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,54 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1853,72 +1853,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$9</f>
         <v>Compromiso Financiero</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$9</f>
         <v>Entidad que representa el compromiso financiero, lo cual correspende a un compromiso financiero al que esta ligado a cierta persona.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -2201,10 +2201,10 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -2212,8 +2212,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="20" t="s">
         <v>56</v>
       </c>
@@ -2288,72 +2288,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$10</f>
         <v>Tipo de Compromiso Financiero</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!B10</f>
         <v>Entidad que representa un tipo de compromiso financiero, lo cual corresponde a la categoria a la que pertenece un compromiso financiero determinado.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -2638,10 +2638,10 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -2649,8 +2649,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="20" t="s">
         <v>56</v>
       </c>
@@ -2725,72 +2725,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!A11</f>
         <v>Mes</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$11</f>
         <v>Entidad que representa un mes, la cual corresponde a un mes en donde se esta administrando el presupuesto. Por ejemplo en el mes febrero se ha realizado x total de gastos.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -3000,10 +3000,10 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -3012,8 +3012,8 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="20" t="s">
         <v>56</v>
       </c>
@@ -3091,72 +3091,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$6</f>
         <v>Año</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$6</f>
         <v>Entidad que representa un año, la cual corresponde al año vigente en que se va a regir el registro del presupuesto correspondiente.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -3366,10 +3366,10 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -3378,8 +3378,8 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="20" t="s">
         <v>56</v>
       </c>
@@ -3432,7 +3432,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="A20:XFD20"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,72 +3460,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$7</f>
         <v>Persona</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$7</f>
         <v>Entidad que representa una persona, lo cual corresponde a la persona encargada de registrar, administrar o ver el el historial del presupuesto.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -3807,14 +3807,14 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -3843,140 +3843,140 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="65" t="s">
+      <c r="H16" s="57"/>
+      <c r="I16" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="66" t="s">
+      <c r="J16" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
     </row>
     <row r="17" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="63" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="64"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="67" t="s">
+      <c r="J17" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="K17" s="63" t="s">
+      <c r="K17" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="64"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
     </row>
     <row r="18" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="50" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="49" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="49"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="49" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="49"/>
+      <c r="H19" s="58"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
     </row>
     <row r="20" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="49" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49" t="s">
+      <c r="H20" s="58"/>
+      <c r="I20" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="K20" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="1:13" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -3984,100 +3984,85 @@
       <c r="C22" s="10"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
@@ -4094,7 +4079,22 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{8CFF7F28-3055-4D0C-A40E-E6071512BFF6}"/>
@@ -4159,72 +4159,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$8</f>
         <v>Rol persona</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$8</f>
         <v>Entidad que representa el rol de una persona, lo cual corresponde al tipo de rol que realiza, desempeña una persona en la aplicacion. Por ejemplo una persona que representa a un administrador puede asignar el rol de lector a otros usuarios.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -4539,105 +4539,105 @@
       <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="48"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="49" t="s">
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="49"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="49" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="H18" s="49"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="49" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="49"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="49" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="49"/>
+      <c r="H20" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D93000CF-6B8A-4BA9-ACDC-F8E3A0B36DA6}"/>
@@ -4698,72 +4698,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertenece un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro puede ser ingreso, el cual indica que los rubros categorizados con el, corresponde a dinero que la persona va a recibir por diferentes razones (salario, inversiones, ganancias ocasionales).</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -5010,10 +5010,10 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -5022,8 +5022,8 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="20" t="s">
         <v>56</v>
       </c>
@@ -5085,24 +5085,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -5179,24 +5179,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -5479,72 +5479,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$5</f>
         <v>Detalle Presupuesto</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!B5</f>
         <v>Entidad que representa un detalle de presupuesto, lo cual corresponde a un detallamiento de un presupuesto determinado. Por ejemplo un detalle de presupuesto es el mes del gasto, la persona implicada, el tipo de gasto, el gasto y el valor gastado.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -5875,72 +5875,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$13</f>
         <v>Ejecucion Real Detalle Presupuesto</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$13</f>
         <v>Entidad que representa una ejecucion real del detalle del presupuesto, lo cual corresponde a la ejecucion real de un detalle de presupuesto determinado, en otras palabras la ejecucion real detalle de presupuesto es la realizacion final de este detalle de presupuesto.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -6272,72 +6272,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$14</f>
         <v>Historia Detalle de Presupuesto</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$14</f>
         <v>Entidad que representa una historial del detalle del presupuesto, la cual corresponde a la historia (trazabilidad) que ha tenido un detalle de presupuesto; por ejemplo, una historia de presupuesto presentaria los diferentes movimientos o acciones que se han realizado en un detalle de presupuesto.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -6654,63 +6654,58 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="48"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="49" t="s">
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="49" t="s">
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="I19" s="49"/>
+      <c r="I19" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D17:G17"/>
@@ -6718,6 +6713,11 @@
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{FD1F1CAE-4C3D-4742-AA29-D1082BCD5770}"/>
@@ -6778,72 +6778,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$5</f>
         <v>Detalle Presupuesto</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!B5</f>
         <v>Entidad que representa un detalle de presupuesto, lo cual corresponde a un detallamiento de un presupuesto determinado. Por ejemplo un detalle de presupuesto es el mes del gasto, la persona implicada, el tipo de gasto, el gasto y el valor gastado.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -7245,72 +7245,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$4</f>
         <v>Presupuesto</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$4</f>
         <v>Entidad que representa un presupuesto, lo cual corresponde al dinero que se va a administrar.  Por ejemplo un presupuesto puede ser la cantidad determinada de dinero que poseo y pienso cotizar para mis gastos de ocio en el año.</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -7718,72 +7718,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="55" t="str">
         <f>'Objetos del dominio'!$A$3</f>
         <v>Rubro</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="55" t="str">
         <f>'Objetos del dominio'!$B$3</f>
         <v>Entidad que representa un rubro, el cual corresponde al rubro determinado que representa cada uno de los conceptos en que se divide el presupuesto. Por ejemplo un rubro puede ser  (reparacion, gimnasio, ocio, alimentacion).</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -8068,7 +8068,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="63" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -8079,7 +8079,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="30"/>
       <c r="C16" s="20" t="s">
         <v>56</v>
